--- a/biology/Écologie/Jade_Lindgaard/Jade_Lindgaard.xlsx
+++ b/biology/Écologie/Jade_Lindgaard/Jade_Lindgaard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jade Lindgaard, née en 1973, est une journaliste française. Elle travaille à Mediapart, où elle traite notamment les sujets liés à l'environnement et l'écologie.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Entrée dans le journalisme en 1997 avec Aden, Jade Lindgaard devient ensuite reporter aux Inrockuptibles avant de rejoindre la rédaction de Mediapart (service société) dès sa création en 2008, puis de devenir responsable de son pôle Écologie et de coprésider la Société des journalistes (SDJ) du média[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Entrée dans le journalisme en 1997 avec Aden, Jade Lindgaard devient ensuite reporter aux Inrockuptibles avant de rejoindre la rédaction de Mediapart (service société) dès sa création en 2008, puis de devenir responsable de son pôle Écologie et de coprésider la Société des journalistes (SDJ) du média.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Prise de position</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Invitée dans l'émission C l'hebdo sur France 5, le dimanche 12 novembre 2017, elle réagit à une intervention de Natacha Polony en déclarant que « l'islamisme, en tant que tel, n'est pas en soi une chose grave, c'est un phénomène qu'il faut comprendre et expliquer ». Cette prise de position suscite des polémiques[2],[3], bien qu'elle ait reconnu « une erreur » en voulant expliquer la neutralité nécessaire des journalistes et en ne précisant pas que « néanmoins la vision politique des fondamentalistes est bien évidement hyper problématique car elle va à l'encontre des droits humains […] »[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Invitée dans l'émission C l'hebdo sur France 5, le dimanche 12 novembre 2017, elle réagit à une intervention de Natacha Polony en déclarant que « l'islamisme, en tant que tel, n'est pas en soi une chose grave, c'est un phénomène qu'il faut comprendre et expliquer ». Cette prise de position suscite des polémiques bien qu'elle ait reconnu « une erreur » en voulant expliquer la neutralité nécessaire des journalistes et en ne précisant pas que « néanmoins la vision politique des fondamentalistes est bien évidement hyper problématique car elle va à l'encontre des droits humains […] ».
 </t>
         </is>
       </c>
@@ -573,20 +589,90 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Je crise climatique : la planète, ma chaudière et moi, Paris, La Découverte, coll. « Cahiers libres », 2014, 248 p. (ISBN 978-2-7071-8268-5)[5],[6]
-Paris 2024. Une ville face à la violence olympique, Éditions Divergences, 2024 (ISBN 979-1097088668)
-En collaboration
-Avec Xavier de La Porte, Le BA-ba du BHL : enquête sur le plus grand intellectuel français, La Découverte, 2004[7],[8]
-Avec Stéphane Beaud et Joseph Confavreux, La France invisible, La Découverte, 2006[9],[10],[11]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Je crise climatique : la planète, ma chaudière et moi, Paris, La Découverte, coll. « Cahiers libres », 2014, 248 p. (ISBN 978-2-7071-8268-5),
+Paris 2024. Une ville face à la violence olympique, Éditions Divergences, 2024 (ISBN 979-1097088668)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jade_Lindgaard</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jade_Lindgaard</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>En collaboration</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Avec Xavier de La Porte, Le BA-ba du BHL : enquête sur le plus grand intellectuel français, La Découverte, 2004,
+Avec Stéphane Beaud et Joseph Confavreux, La France invisible, La Découverte, 2006
 Avec Dave Anctil, Sophie Audidière et Alice Le Goff (préf. Philip Pettit), La République et ses Démons : essais de républicanisme appliqué, Ère, 2007, 160 p. (ISBN 978-2915453355)
 Avec Xavier de La Porte, Le nouveau BA-BA du BHL : enquête sur le plus grand intellectuel français, La Découverte, 2011, 276 p. (ISBN 978-2-707-16953-2)
-Collectif[12] (préf. David Graeber), Éloge des mauvaises herbes : Ce que nous devons à la ZAD, Paris, Les Liens qui libèrent, 2018, 205 p. (ISBN 979-10-209-0642-7)[13]
+Collectif (préf. David Graeber), Éloge des mauvaises herbes : Ce que nous devons à la ZAD, Paris, Les Liens qui libèrent, 2018, 205 p. (ISBN 979-10-209-0642-7)
 Christophe Laurens, Patrick Bouchain, Jade Lindgaard et Cyrille Weiner (photographies), Notre-Dame-des-Landes ou le métier de vivre, Loco Éditions, 2018, 224 p. (ISBN 978-2919507986)
-Avec Sylvain Bourmeau et Jean-max Colard, Si je peux faire plus qu'une phrase… entretien avec Jacques Derrida, Aoc, 2022, 40 p. (ISBN 978-2492542114)
-Introduction, préface
-Occupy Wall Street - le livre du mouvement des indignés, sous la direction de Keith Gessen et Astra Taylor, introduction de Jade Lindgaard ; traduit de l’anglais par Laure Motet et Judith Strauser, Les Arènes, 2012  (ISBN 978-2-3520-4202-0)
+Avec Sylvain Bourmeau et Jean-max Colard, Si je peux faire plus qu'une phrase… entretien avec Jacques Derrida, Aoc, 2022, 40 p. (ISBN 978-2492542114)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jade_Lindgaard</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jade_Lindgaard</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Introduction, préface</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Occupy Wall Street - le livre du mouvement des indignés, sous la direction de Keith Gessen et Astra Taylor, introduction de Jade Lindgaard ; traduit de l’anglais par Laure Motet et Judith Strauser, Les Arènes, 2012  (ISBN 978-2-3520-4202-0)
 Starhawk (trad. de l'anglais par Isabelle Stengers, Édith Rubinstein et Alix Grzybowski, préf. Jade Lindgaard), Chroniques altermondialistes : Tisser la toile du soulèvement global, Paris, Cambourakis, coll. « Sorcières », 2016, 240 p. (ISBN 978-2-36624-207-2)</t>
         </is>
       </c>
